--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_5-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/CatBoostModel/261023_DF_opt_hyperparam_CatBoostModel_5-nstep.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bình Phước</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.56687361766453</v>
+        <v>7.07780183725544</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0548673462232198</v>
+        <v>0.02549146920028532</v>
       </c>
       <c r="I2" t="n">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K2" t="n">
-        <v>766</v>
+        <v>700</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -567,26 +567,26 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.1,0.5,0.9</t>
+          <t>IsNone</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>99.5001945712206</v>
+        <v>99.58995855873394</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="P2" t="n">
-        <v>5.979903834690155</v>
+        <v>0.7897392269346648</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.507686901628621</v>
+        <v>8.957101670804416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>BR Vũng Tàu</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.471702006407567</v>
+        <v>15.29154160417979</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -612,16 +612,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01589985481106663</v>
+        <v>0.0598204353210573</v>
       </c>
       <c r="I3" t="n">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>332</v>
+        <v>455</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -630,83 +630,3359 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>IsNone</t>
+          <t>0.1,0.5,0.9</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>21.30386067501678</v>
+        <v>16.55353114265561</v>
       </c>
       <c r="O3" t="n">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="P3" t="n">
-        <v>5.726597745808458</v>
+        <v>7.245934467782937</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.509673019971049</v>
+        <v>2.037589125680211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Bình Phước</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14.37353507006796</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.08370961899019323</v>
+      </c>
+      <c r="I4" t="n">
+        <v>101</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>705</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>8.131242492461379</v>
+      </c>
+      <c r="O4" t="n">
+        <v>242</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9.786534962352283</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8.760714627290856</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bình Thuận</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5.348674155545178</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.001579979307075931</v>
+      </c>
+      <c r="I5" t="n">
+        <v>161</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>993</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>99.13924827788217</v>
+      </c>
+      <c r="O5" t="n">
+        <v>121</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9.743177937462429</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7.085869113123163</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bình Định</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6.034022157283128</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.01149302341739578</v>
+      </c>
+      <c r="I6" t="n">
+        <v>140</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>694</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>61.12338369970398</v>
+      </c>
+      <c r="O6" t="n">
+        <v>61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.337760575828589</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5680759632181387</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bạc Liêu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5.093591784395064</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.02813510807222308</v>
+      </c>
+      <c r="I7" t="n">
+        <v>192</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>852</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>63.19751173514125</v>
+      </c>
+      <c r="O7" t="n">
+        <v>33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.859828910124746</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8.963393305888719</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bắc Kạn</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9.244893665827673e-07</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0350201874139426</v>
+      </c>
+      <c r="I8" t="n">
+        <v>117</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>231</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>4.714500846448584</v>
+      </c>
+      <c r="O8" t="n">
+        <v>243</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.129507490025391</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6.343799033618914</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bắc Giang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1933947182447012</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01428041771101782</v>
+      </c>
+      <c r="I9" t="n">
+        <v>90</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>756</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>60.54897964315657</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.054852627964051</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.7080221996649447</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cao Bằng</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005376455531246559</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.06848382725746388</v>
+      </c>
+      <c r="I10" t="n">
+        <v>51</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>502</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>7.322911026376673</v>
+      </c>
+      <c r="O10" t="n">
+        <v>49</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.667568098917466</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.270316777662676</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cà Mau</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>18.74607304932383</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.01962310675078146</v>
+      </c>
+      <c r="I11" t="n">
+        <v>80</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>560</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>95.62014190451875</v>
+      </c>
+      <c r="O11" t="n">
+        <v>78</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.738032725599038</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.009820063169291</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cần Thơ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4.536213088835367</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.001090612725881557</v>
+      </c>
+      <c r="I12" t="n">
+        <v>113</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>388</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>43.50076031716618</v>
+      </c>
+      <c r="O12" t="n">
+        <v>71</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.498677374481465</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.165564894079453</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gia Lai</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4.218896156817329</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.02781750889456919</v>
+      </c>
+      <c r="I13" t="n">
+        <v>163</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>127</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>95.51602394361066</v>
+      </c>
+      <c r="O13" t="n">
+        <v>210</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5.183357341022868</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7.32608367644412</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hà Giang</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.761756543145357e-06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.03925406440625807</v>
+      </c>
+      <c r="I14" t="n">
+        <v>58</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>232</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>67.64693494637467</v>
+      </c>
+      <c r="O14" t="n">
+        <v>22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6.254859611695325</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>8.253714804938179</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.721419102528088</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.07469739287915689</v>
+      </c>
+      <c r="I15" t="n">
+        <v>189</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>739</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>54.74911645212511</v>
+      </c>
+      <c r="O15" t="n">
+        <v>51</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.492658581793948</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5.158150923984257</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hà Tĩnh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3967350498539293</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.001141302791427432</v>
+      </c>
+      <c r="I16" t="n">
+        <v>155</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>128</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>84.05189502895747</v>
+      </c>
+      <c r="O16" t="n">
+        <v>147</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.817193997948164</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>9.049671951875132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hòa Bình</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02148029754081078</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.05327896369391776</v>
+      </c>
+      <c r="I17" t="n">
+        <v>80</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>99</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>38.33695877528299</v>
+      </c>
+      <c r="O17" t="n">
+        <v>37</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.561765845760795</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7.269223990716768</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hưng Yên</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01940617601658308</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0418849672973492</v>
+      </c>
+      <c r="I18" t="n">
+        <v>64</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>585</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>7.467532531518449</v>
+      </c>
+      <c r="O18" t="n">
+        <v>107</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8.351681221912404</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>8.63131088216169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hải Dương</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.01921996931677513</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01537750761838377</v>
+      </c>
+      <c r="I19" t="n">
+        <v>86</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>445</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>15.43215033335045</v>
+      </c>
+      <c r="O19" t="n">
+        <v>182</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.591881326559467</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>8.683127445572401</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hải Phòng</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6335159830397213</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.00604978009694968</v>
+      </c>
+      <c r="I20" t="n">
+        <v>63</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>931</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>72.34504409598618</v>
+      </c>
+      <c r="O20" t="n">
+        <v>237</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.04267544829773</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.361939534560339</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>14.28184472564063</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0664507862872704</v>
+      </c>
+      <c r="I21" t="n">
+        <v>135</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>179</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>54.30631592499139</v>
+      </c>
+      <c r="O21" t="n">
+        <v>65</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.227908058288456</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.372159438171109</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kiên Giang</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5.993543307045167</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.02546934441619461</v>
+      </c>
+      <c r="I22" t="n">
+        <v>149</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>182</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>60.05139934999485</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.804283099464044</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5.779203969791592</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kon Tum</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.991023547576902</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.08493575708448681</v>
+      </c>
+      <c r="I23" t="n">
+        <v>111</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>572</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>6.19961000187103</v>
+      </c>
+      <c r="O23" t="n">
+        <v>119</v>
+      </c>
+      <c r="P23" t="n">
+        <v>9.313995188620424</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6.795442357712132</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lai Châu</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>7.491230909522542e-07</v>
+      </c>
+      <c r="D24" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.01677094710684951</v>
+      </c>
+      <c r="I24" t="n">
+        <v>183</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>781</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0.4403492250519889</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>8.026981923246996</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5.184754374440492</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Long An</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6.229037092121619</v>
+      </c>
+      <c r="D25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03670390513826739</v>
+      </c>
+      <c r="I25" t="n">
+        <v>61</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>689</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>61.71975566595435</v>
+      </c>
+      <c r="O25" t="n">
+        <v>31</v>
+      </c>
+      <c r="P25" t="n">
+        <v>8.284321021906841</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.012250505004298</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lào Cai</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.004301932451593996</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.09308046373339521</v>
+      </c>
+      <c r="I26" t="n">
+        <v>84</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>475</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>22.76133762167456</v>
+      </c>
+      <c r="O26" t="n">
+        <v>208</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.2064924793022823</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5.806529559735111</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4978079013991876</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.001066783272962342</v>
+      </c>
+      <c r="I27" t="n">
+        <v>73</v>
+      </c>
+      <c r="J27" t="n">
+        <v>15</v>
+      </c>
+      <c r="K27" t="n">
+        <v>864</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0.1595437873255694</v>
+      </c>
+      <c r="O27" t="n">
+        <v>9</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.149754903931103</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.716453800712379</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Lạng Sơn</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0149584070769447</v>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.003181675794703732</v>
+      </c>
+      <c r="I28" t="n">
+        <v>196</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>937</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0.9726317159174247</v>
+      </c>
+      <c r="O28" t="n">
+        <v>246</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.290842541906124</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.1300337100245654</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nam Định</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4021827722989465</v>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.01365326759984101</v>
+      </c>
+      <c r="I29" t="n">
+        <v>117</v>
+      </c>
+      <c r="J29" t="n">
+        <v>12</v>
+      </c>
+      <c r="K29" t="n">
+        <v>247</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>69.9594352690778</v>
+      </c>
+      <c r="O29" t="n">
+        <v>96</v>
+      </c>
+      <c r="P29" t="n">
+        <v>9.041305362979148</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.425936988342351</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nghệ An</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.243074778003965</v>
+      </c>
+      <c r="D30" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.001267157047071954</v>
+      </c>
+      <c r="I30" t="n">
+        <v>146</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>68.84378394096464</v>
+      </c>
+      <c r="O30" t="n">
+        <v>23</v>
+      </c>
+      <c r="P30" t="n">
+        <v>9.997852089305786</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.38698822266259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ninh Bình</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.04869376838017696</v>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.08977270348093574</v>
+      </c>
+      <c r="I31" t="n">
+        <v>176</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>422</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>18.83725499235322</v>
+      </c>
+      <c r="O31" t="n">
+        <v>43</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.9493700592065257</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>6.960040438553678</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ninh Thuận</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>13.33990218760987</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.001187870644482226</v>
+      </c>
+      <c r="I32" t="n">
+        <v>128</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9</v>
+      </c>
+      <c r="K32" t="n">
+        <v>526</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>13.6281915825071</v>
+      </c>
+      <c r="O32" t="n">
+        <v>50</v>
+      </c>
+      <c r="P32" t="n">
+        <v>8.306431718882781</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.1566563728460819</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Phú Thọ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.04588575539569504</v>
+      </c>
+      <c r="D33" t="n">
+        <v>50</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.001429846488989199</v>
+      </c>
+      <c r="I33" t="n">
+        <v>172</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>560</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>41.89107244568483</v>
+      </c>
+      <c r="O33" t="n">
+        <v>77</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6.712694074987532</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.85500830544858</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Phú Yên</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>11.70096696165215</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0362497342754547</v>
+      </c>
+      <c r="I34" t="n">
+        <v>124</v>
+      </c>
+      <c r="J34" t="n">
+        <v>15</v>
+      </c>
+      <c r="K34" t="n">
+        <v>338</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>78.22867470738311</v>
+      </c>
+      <c r="O34" t="n">
+        <v>134</v>
+      </c>
+      <c r="P34" t="n">
+        <v>9.910956412879283</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.060838018475595</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Quảng Bình</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.572807804322153</v>
+      </c>
+      <c r="D35" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.01319059737763877</v>
+      </c>
+      <c r="I35" t="n">
+        <v>145</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>839</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>69.76060953561209</v>
+      </c>
+      <c r="O35" t="n">
+        <v>229</v>
+      </c>
+      <c r="P35" t="n">
+        <v>7.129736957210133</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4.174161636509684</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Quảng Nam</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3.582084673519795</v>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.002904436206748061</v>
+      </c>
+      <c r="I36" t="n">
+        <v>168</v>
+      </c>
+      <c r="J36" t="n">
+        <v>13</v>
+      </c>
+      <c r="K36" t="n">
+        <v>9</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>11.77304723278152</v>
+      </c>
+      <c r="O36" t="n">
+        <v>71</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.888099290240471</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>9.021832022477099</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Quảng Ngãi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3.763133186441303</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.002348961092508858</v>
+      </c>
+      <c r="I37" t="n">
+        <v>136</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8</v>
+      </c>
+      <c r="K37" t="n">
+        <v>543</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>8.494106312157733</v>
+      </c>
+      <c r="O37" t="n">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.988447637636225</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.718285100667077</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Quảng Ninh</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CatBoost</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4.232125996517668</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-5,-6,-7</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.06433631609253977</v>
-      </c>
-      <c r="I4" t="n">
-        <v>110</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.6476012170302486</v>
+      </c>
+      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.002291602237252971</v>
+      </c>
+      <c r="I38" t="n">
+        <v>148</v>
+      </c>
+      <c r="J38" t="n">
+        <v>10</v>
+      </c>
+      <c r="K38" t="n">
+        <v>260</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>69.81953784451763</v>
+      </c>
+      <c r="O38" t="n">
+        <v>150</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.32721908744145</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5.735534559494434</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Quảng Trị</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.87449889699833</v>
+      </c>
+      <c r="D39" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.007796458009081079</v>
+      </c>
+      <c r="I39" t="n">
+        <v>70</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>849</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0.3490171864813678</v>
+      </c>
+      <c r="O39" t="n">
+        <v>216</v>
+      </c>
+      <c r="P39" t="n">
+        <v>9.412685390706418</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>8.635551754326952</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sóc Trăng</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>10.42319477904844</v>
+      </c>
+      <c r="D40" t="n">
+        <v>50</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.009774348671046349</v>
+      </c>
+      <c r="I40" t="n">
+        <v>61</v>
+      </c>
+      <c r="J40" t="n">
+        <v>14</v>
+      </c>
+      <c r="K40" t="n">
+        <v>886</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>35.57067838089972</v>
+      </c>
+      <c r="O40" t="n">
+        <v>238</v>
+      </c>
+      <c r="P40" t="n">
+        <v>6.245695026263496</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.2587374183022687</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sơn La</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2.29733106584463e-07</v>
+      </c>
+      <c r="D41" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.01301998405586796</v>
+      </c>
+      <c r="I41" t="n">
+        <v>104</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>192</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>89.70005977138707</v>
+      </c>
+      <c r="O41" t="n">
+        <v>122</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.6199322320374876</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>7.431653252034764</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TT Huế</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2.475925367424681</v>
+      </c>
+      <c r="D42" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.001167155459535786</v>
+      </c>
+      <c r="I42" t="n">
+        <v>132</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11</v>
+      </c>
+      <c r="K42" t="n">
+        <v>655</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>22.51949217570504</v>
+      </c>
+      <c r="O42" t="n">
+        <v>212</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.1417791334627974</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>7.210481708466635</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1424606208094459</v>
+      </c>
+      <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" t="n">
+        <v>7</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.02835986238135372</v>
+      </c>
+      <c r="I43" t="n">
+        <v>106</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>477</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>82.87618092340328</v>
+      </c>
+      <c r="O43" t="n">
+        <v>212</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4.415957518179613</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>6.900433571029633</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Thái Bình</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2348270659379806</v>
+      </c>
+      <c r="D44" t="n">
+        <v>50</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.01288259883297955</v>
+      </c>
+      <c r="I44" t="n">
+        <v>186</v>
+      </c>
+      <c r="J44" t="n">
+        <v>7</v>
+      </c>
+      <c r="K44" t="n">
+        <v>253</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>91.42036427959664</v>
+      </c>
+      <c r="O44" t="n">
+        <v>246</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.00631982349939</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>8.0132719755696</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Thái Nguyên</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02177474706217551</v>
+      </c>
+      <c r="D45" t="n">
+        <v>50</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.07108046955182876</v>
+      </c>
+      <c r="I45" t="n">
+        <v>81</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>476</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>14.474543964536</v>
+      </c>
+      <c r="O45" t="n">
+        <v>148</v>
+      </c>
+      <c r="P45" t="n">
+        <v>9.014555216505984</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.187864986328931</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tiền Giang</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10.33442604255396</v>
+      </c>
+      <c r="D46" t="n">
+        <v>50</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.001027843186239046</v>
+      </c>
+      <c r="I46" t="n">
+        <v>61</v>
+      </c>
+      <c r="J46" t="n">
+        <v>9</v>
+      </c>
+      <c r="K46" t="n">
+        <v>52</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>66.0447564321578</v>
+      </c>
+      <c r="O46" t="n">
+        <v>143</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.250431710346202</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5.563396774358099</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Trà Vinh</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6.443015919065089</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.001864464167434715</v>
+      </c>
+      <c r="I47" t="n">
+        <v>127</v>
+      </c>
+      <c r="J47" t="n">
+        <v>15</v>
+      </c>
+      <c r="K47" t="n">
+        <v>501</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>94.7006615120644</v>
+      </c>
+      <c r="O47" t="n">
+        <v>251</v>
+      </c>
+      <c r="P47" t="n">
+        <v>7.575728751094456</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.6997632703292869</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tuyên Quang</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>9.455623805312838e-06</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.08578746590301681</v>
+      </c>
+      <c r="I48" t="n">
+        <v>74</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>669</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>68.39311631960244</v>
+      </c>
+      <c r="O48" t="n">
         <v>8</v>
       </c>
-      <c r="K4" t="n">
-        <v>58</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>quantile</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="P48" t="n">
+        <v>8.596604456995088</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3.14772483542501</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tây Ninh</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>7.066252382064398</v>
+      </c>
+      <c r="D49" t="n">
+        <v>50</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.08661422840566958</v>
+      </c>
+      <c r="I49" t="n">
+        <v>185</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>782</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>42.62265951110462</v>
+      </c>
+      <c r="O49" t="n">
+        <v>87</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.287464263504561</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.663662607139451</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Vĩnh Phúc</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.239276921401627</v>
+      </c>
+      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" t="n">
+        <v>7</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.002797297393340609</v>
+      </c>
+      <c r="I50" t="n">
+        <v>90</v>
+      </c>
+      <c r="J50" t="n">
+        <v>12</v>
+      </c>
+      <c r="K50" t="n">
+        <v>880</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>53.72889605053053</v>
+      </c>
+      <c r="O50" t="n">
+        <v>89</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.508296781785534</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.4386533299423521</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Yên Bái</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.02181243523149786</v>
+      </c>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="n">
+        <v>7</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.06681572263531747</v>
+      </c>
+      <c r="I51" t="n">
+        <v>94</v>
+      </c>
+      <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="n">
+        <v>247</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>0.1,0.5,0.9</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>42.99150790366344</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.38190757935873</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8.419276675319168</v>
+      <c r="N51" t="n">
+        <v>47.29123474760443</v>
+      </c>
+      <c r="O51" t="n">
+        <v>234</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8007345626137006</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.2329720018504468</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Điện Biên</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.003740007203664289</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.05983522963123129</v>
+      </c>
+      <c r="I52" t="n">
+        <v>103</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" t="n">
+        <v>505</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>26.70987729640948</v>
+      </c>
+      <c r="O52" t="n">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4.74324571094223</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.527227469057594</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>9.080354870043264</v>
+      </c>
+      <c r="D53" t="n">
+        <v>50</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.001039447177036314</v>
+      </c>
+      <c r="I53" t="n">
+        <v>161</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6</v>
+      </c>
+      <c r="K53" t="n">
+        <v>704</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4.657527948712257</v>
+      </c>
+      <c r="O53" t="n">
+        <v>232</v>
+      </c>
+      <c r="P53" t="n">
+        <v>7.004986613785022</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>9.493424222848208</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Đắk Nông</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3.754404053600747</v>
+      </c>
+      <c r="D54" t="n">
+        <v>50</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.04317150974155842</v>
+      </c>
+      <c r="I54" t="n">
+        <v>116</v>
+      </c>
+      <c r="J54" t="n">
+        <v>13</v>
+      </c>
+      <c r="K54" t="n">
+        <v>271</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>94.71376625336922</v>
+      </c>
+      <c r="O54" t="n">
+        <v>220</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.589987803362817</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.9220373591360279</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Đắk Lắk</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>7.141430833689441</v>
+      </c>
+      <c r="D55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.01962591720166644</v>
+      </c>
+      <c r="I55" t="n">
+        <v>78</v>
+      </c>
+      <c r="J55" t="n">
+        <v>14</v>
+      </c>
+      <c r="K55" t="n">
+        <v>204</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.1,0.5,0.9</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>79.09912808455884</v>
+      </c>
+      <c r="O55" t="n">
+        <v>44</v>
+      </c>
+      <c r="P55" t="n">
+        <v>7.515533106875911</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.7654128263208542</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Đồng Tháp</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CatBoost</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>9.866129603111467</v>
+      </c>
+      <c r="D56" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" t="n">
+        <v>7</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-5,-6,-7</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.01882956461306036</v>
+      </c>
+      <c r="I56" t="n">
+        <v>133</v>
+      </c>
+      <c r="J56" t="n">
+        <v>15</v>
+      </c>
+      <c r="K56" t="n">
+        <v>455</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>quantile</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>IsNone</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>48.02114502302503</v>
+      </c>
+      <c r="O56" t="n">
+        <v>159</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.670291824256059</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>9.98891625984489</v>
       </c>
     </row>
   </sheetData>
